--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,18 +46,21 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -67,10 +70,13 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>love</t>
@@ -79,223 +85,226 @@
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>bread</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>sturdy</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>old</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>comfortable</t>
   </si>
   <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>every</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>use</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -656,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -743,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -767,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -775,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5925925925925926</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -793,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -817,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,49 +834,49 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2830188679245283</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>0.8828125</v>
+      </c>
+      <c r="L5">
+        <v>113</v>
+      </c>
+      <c r="M5">
+        <v>113</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>15</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>38</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="L5">
-        <v>60</v>
-      </c>
-      <c r="M5">
-        <v>60</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -875,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2558139534883721</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -893,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8529411764705882</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>551</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>551</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -917,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>95</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -925,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.217948717948718</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -943,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8275862068965517</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>557</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>557</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -967,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -996,16 +1005,16 @@
         <v>78</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1017,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1025,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1135135135135135</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1043,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7402597402597403</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1067,21 +1076,45 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.1027027027027027</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>166</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L10">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,21 +1126,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7272727272727273</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,21 +1152,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7123287671232876</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L12">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M12">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,21 +1178,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,12 +1204,12 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14">
         <v>0.6644067796610169</v>
@@ -1202,16 +1235,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6356340288924559</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L15">
-        <v>792</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>792</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1223,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>454</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6197183098591549</v>
+        <v>0.6316211878009631</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>787</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>787</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1249,21 +1282,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.5972222222222222</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1275,21 +1308,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.5942857142857143</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L18">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M18">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1301,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.59375</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1327,21 +1360,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.5882352941176471</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1353,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.5625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1379,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.5614035087719298</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1405,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5571428571428572</v>
+        <v>0.5029940119760479</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1431,21 +1464,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5384615384615384</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1457,21 +1490,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5384615384615384</v>
+        <v>0.484375</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1483,21 +1516,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5301204819277109</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1509,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5209580838323353</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L27">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1535,21 +1568,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4705882352941176</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1561,21 +1594,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4586466165413534</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L29">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1587,21 +1620,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4519230769230769</v>
+        <v>0.44</v>
       </c>
       <c r="L30">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1613,21 +1646,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.45</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1639,21 +1672,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4285714285714285</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1665,21 +1698,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4081632653061225</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1691,21 +1724,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.3795180722891566</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L34">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1717,12 +1750,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>103</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
         <v>0.3684210526315789</v>
@@ -1748,16 +1781,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.345679012345679</v>
+        <v>0.357843137254902</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1769,21 +1802,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>53</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3455882352941176</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L37">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1795,21 +1828,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>267</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3383458646616541</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L38">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1821,21 +1854,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.3278688524590164</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1847,47 +1880,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40">
+        <v>0.345679012345679</v>
+      </c>
+      <c r="L40">
+        <v>28</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>53</v>
-      </c>
-      <c r="K40">
-        <v>0.3265306122448979</v>
-      </c>
-      <c r="L40">
-        <v>16</v>
-      </c>
-      <c r="M40">
-        <v>16</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>33</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.3151750972762646</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L41">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1899,21 +1932,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>176</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K42">
-        <v>0.3076923076923077</v>
+        <v>0.3229571984435798</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1925,21 +1958,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>0.2772277227722773</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M43">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1951,21 +1984,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.2741935483870968</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1977,21 +2010,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K45">
-        <v>0.273972602739726</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L45">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="M45">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2003,21 +2036,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>530</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>0.2702702702702703</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2029,21 +2062,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K47">
-        <v>0.2631578947368421</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2055,21 +2088,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K48">
-        <v>0.2335844994617869</v>
+        <v>0.2479452054794521</v>
       </c>
       <c r="L48">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="M48">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2081,21 +2114,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>712</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K49">
-        <v>0.2302158273381295</v>
+        <v>0.2378902045209903</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2107,21 +2140,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>107</v>
+        <v>708</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K50">
-        <v>0.2095238095238095</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2133,21 +2166,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K51">
-        <v>0.1974921630094044</v>
+        <v>0.2200956937799043</v>
       </c>
       <c r="L51">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M51">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2159,21 +2192,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>256</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K52">
-        <v>0.1854304635761589</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2185,21 +2218,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>123</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K53">
-        <v>0.1847826086956522</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2211,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K54">
-        <v>0.1818181818181818</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L54">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="M54">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2237,21 +2270,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>171</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K55">
-        <v>0.1682119205298013</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L55">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="M55">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2263,21 +2296,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>628</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K56">
-        <v>0.1585677749360614</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L56">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2289,21 +2322,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>658</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K57">
-        <v>0.1388888888888889</v>
+        <v>0.1801801801801802</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2315,21 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K58">
-        <v>0.1376146788990826</v>
+        <v>0.1748344370860927</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2341,21 +2374,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>94</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K59">
-        <v>0.1342281879194631</v>
+        <v>0.1547314578005115</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2367,15 +2400,15 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>129</v>
+        <v>661</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K60">
-        <v>0.1133004926108374</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="L60">
         <v>23</v>
@@ -2393,21 +2426,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>180</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K61">
-        <v>0.1099656357388316</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L61">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2419,21 +2452,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>259</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K62">
-        <v>0.1097560975609756</v>
+        <v>0.139344262295082</v>
       </c>
       <c r="L62">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2445,21 +2478,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>146</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K63">
-        <v>0.1070559610705596</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="L63">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2471,21 +2504,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>367</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K64">
-        <v>0.1051212938005391</v>
+        <v>0.1280487804878049</v>
       </c>
       <c r="L64">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M64">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2497,47 +2530,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>332</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K65">
-        <v>0.1025641025641026</v>
+        <v>0.1162162162162162</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>140</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K66">
-        <v>0.09545454545454546</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L66">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M66">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2549,21 +2582,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>398</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K67">
-        <v>0.09243697478991597</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="L67">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M67">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2575,15 +2608,15 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>216</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K68">
-        <v>0.09090909090909091</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L68">
         <v>15</v>
@@ -2601,21 +2634,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K69">
-        <v>0.0903954802259887</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M69">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2627,21 +2660,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>161</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K70">
-        <v>0.08333333333333333</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L70">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M70">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2653,21 +2686,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>418</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K71">
-        <v>0.08148148148148149</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L71">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2679,21 +2712,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>248</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72">
-        <v>0.081145584725537</v>
+        <v>0.0851581508515815</v>
       </c>
       <c r="L72">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M72">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2705,21 +2738,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K73">
-        <v>0.05904059040590406</v>
+        <v>0.08487084870848709</v>
       </c>
       <c r="L73">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2731,47 +2764,47 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K74">
-        <v>0.054519368723099</v>
+        <v>0.08353221957040573</v>
       </c>
       <c r="L74">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M74">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N74">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>659</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K75">
-        <v>0.04644808743169399</v>
+        <v>0.08148148148148149</v>
       </c>
       <c r="L75">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2783,21 +2816,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>349</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K76">
-        <v>0.04383561643835616</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="L76">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M76">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2809,73 +2842,73 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>349</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K77">
-        <v>0.04295051353874883</v>
+        <v>0.054519368723099</v>
       </c>
       <c r="L77">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M77">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N77">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O77">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>1025</v>
+        <v>659</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K78">
-        <v>0.03807106598984772</v>
+        <v>0.05175600739371534</v>
       </c>
       <c r="L78">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M78">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>379</v>
+        <v>513</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K79">
-        <v>0.03690036900369004</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L79">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M79">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2887,33 +2920,85 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>522</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K80">
-        <v>0.02422145328719723</v>
+        <v>0.04384328358208955</v>
       </c>
       <c r="L80">
+        <v>47</v>
+      </c>
+      <c r="M80">
+        <v>47</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K81">
+        <v>0.02424242424242424</v>
+      </c>
+      <c r="L81">
         <v>28</v>
       </c>
-      <c r="M80">
-        <v>29</v>
-      </c>
-      <c r="N80">
-        <v>0.97</v>
-      </c>
-      <c r="O80">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P80" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>1128</v>
+      <c r="M81">
+        <v>30</v>
+      </c>
+      <c r="N81">
+        <v>0.93</v>
+      </c>
+      <c r="O81">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K82">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="L82">
+        <v>15</v>
+      </c>
+      <c r="M82">
+        <v>17</v>
+      </c>
+      <c r="N82">
+        <v>0.88</v>
+      </c>
+      <c r="O82">
+        <v>0.12</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
